--- a/ML/third_ts.xlsx
+++ b/ML/third_ts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevol\Desktop\ECON_P\ML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Random\ECON_P\ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27F92EE-99DF-4682-8E79-87D65B4DD8D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{930E81EC-F5A4-4D1D-B3E7-9353E86D560D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="17">
   <si>
     <t>Ամիսները</t>
   </si>
@@ -462,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8"/>
@@ -1705,17 +1705,39 @@
         <v>107.1</v>
       </c>
     </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B116" s="1">
+        <v>107.7</v>
+      </c>
+      <c r="C116" s="1">
+        <v>107.1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="1">
+        <v>110.1</v>
+      </c>
+      <c r="C117" s="1">
+        <v>107.5</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A80:C80"/>
     <mergeCell ref="A93:C93"/>
     <mergeCell ref="A106:C106"/>
     <mergeCell ref="A67:C67"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A80:C80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
